--- a/data/W45_2025.xlsx
+++ b/data/W45_2025.xlsx
@@ -456,7 +456,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>4-11 Nov</t>
+          <t>(4-11 Nov 2025)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
